--- a/nigeria_covid19.xlsx
+++ b/nigeria_covid19.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desky\DYNAMIX\COVID-19 NIGERIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desky\DYNAMIX\COVID-19 NIGERIA\Papers\02 Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD6CE18A-B46E-4D7D-8A0D-15BE40B54D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9677561A-2815-4D06-96A2-896C871B7EC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="636" windowWidth="17280" windowHeight="10968"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nigeria_covid19" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_ftn1" localSheetId="0">nigeria_covid19!$A$24</definedName>
-    <definedName name="_ftnref1" localSheetId="0">nigeria_covid19!$C$16</definedName>
+    <definedName name="_ftn1" localSheetId="0">nigeria_covid19!$A$44</definedName>
+    <definedName name="_ftnref1" localSheetId="0">nigeria_covid19!$C$35</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>S/N</t>
   </si>
@@ -41,22 +51,22 @@
     <t>Percent Change %</t>
   </si>
   <si>
-    <t>151[1]</t>
+    <t>Notes</t>
   </si>
   <si>
-    <t>==</t>
+    <t>On the 31st of March 2020, the NCDC reported 139 on twitter while Wikipedia updated its 139 cases to 151 later by midnight.</t>
   </si>
   <si>
-    <t>+ ==</t>
+    <t>On the 3rd of April 2020, the NCDC reported 210 cases. This was later corrected to 209 cases the next day.</t>
   </si>
   <si>
-    <t>[1] *NCDC reported 139 on twitter while Wikipedia updated its 139 cases to 151 later by midnight. Insider information?</t>
+    <t>(n.a.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -393,7 +403,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -517,6 +527,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -563,7 +653,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -580,12 +670,22 @@
     <xf numFmtId="14" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -941,11 +1041,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -956,7 +1056,7 @@
     <col min="5" max="5" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -978,351 +1078,731 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>43907</v>
+        <v>43888</v>
       </c>
       <c r="C2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
+        <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>43908</v>
+        <v>43889</v>
       </c>
       <c r="C3" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
+        <f t="shared" ref="A4:A40" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>43909</v>
+        <v>43890</v>
       </c>
       <c r="C4" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>43910</v>
+        <v>43891</v>
       </c>
       <c r="C5" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>43911</v>
+        <v>43892</v>
       </c>
       <c r="C6" s="2">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>43912</v>
+        <v>43893</v>
       </c>
       <c r="C7" s="2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>43913</v>
+        <v>43894</v>
       </c>
       <c r="C8" s="2">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>43914</v>
+        <v>43895</v>
       </c>
       <c r="C9" s="2">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>43915</v>
+        <v>43896</v>
       </c>
       <c r="C10" s="2">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>43916</v>
+        <v>43897</v>
       </c>
       <c r="C11" s="2">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>43917</v>
+        <v>43898</v>
       </c>
       <c r="C12" s="2">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>43918</v>
+        <v>43899</v>
       </c>
       <c r="C13" s="2">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="4">
-        <v>43919</v>
+        <v>43900</v>
       </c>
       <c r="C14" s="2">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="D14" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>43920</v>
+        <v>43901</v>
       </c>
       <c r="C15" s="2">
-        <v>131</v>
+        <v>2</v>
       </c>
       <c r="D15" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="4">
-        <v>43921</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>5</v>
+        <v>43902</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
       </c>
       <c r="D16" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="4">
-        <v>43922</v>
+        <v>43903</v>
       </c>
       <c r="C17" s="2">
-        <v>174</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="4">
-        <v>43923</v>
+        <v>43904</v>
       </c>
       <c r="C18" s="2">
-        <v>184</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>10</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="4">
-        <v>43924</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>7</v>
+        <v>43905</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="4">
+        <v>43906</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>43907</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <v>43908</v>
+      </c>
+      <c r="C22" s="2">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
+        <v>43909</v>
+      </c>
+      <c r="C23" s="2">
+        <v>11</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="4">
+        <v>43910</v>
+      </c>
+      <c r="C24" s="2">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="4">
+        <v>43911</v>
+      </c>
+      <c r="C25" s="2">
+        <v>22</v>
+      </c>
+      <c r="D25" s="2">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="4">
+        <v>43912</v>
+      </c>
+      <c r="C26" s="2">
+        <v>30</v>
+      </c>
+      <c r="D26" s="2">
+        <v>8</v>
+      </c>
+      <c r="E26" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="4">
+        <v>43913</v>
+      </c>
+      <c r="C27" s="2">
+        <v>40</v>
+      </c>
+      <c r="D27" s="2">
+        <v>10</v>
+      </c>
+      <c r="E27" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="4">
+        <v>43914</v>
+      </c>
+      <c r="C28" s="2">
+        <v>44</v>
+      </c>
+      <c r="D28" s="2">
+        <v>4</v>
+      </c>
+      <c r="E28" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="4">
+        <v>43915</v>
+      </c>
+      <c r="C29" s="2">
+        <v>51</v>
+      </c>
+      <c r="D29" s="2">
+        <v>7</v>
+      </c>
+      <c r="E29" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="4">
+        <v>43916</v>
+      </c>
+      <c r="C30" s="2">
+        <v>65</v>
+      </c>
+      <c r="D30" s="2">
+        <v>14</v>
+      </c>
+      <c r="E30" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="4">
+        <v>43917</v>
+      </c>
+      <c r="C31" s="2">
+        <v>81</v>
+      </c>
+      <c r="D31" s="2">
+        <v>16</v>
+      </c>
+      <c r="E31" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="4">
+        <v>43918</v>
+      </c>
+      <c r="C32" s="2">
+        <v>97</v>
+      </c>
+      <c r="D32" s="2">
+        <v>16</v>
+      </c>
+      <c r="E32" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="4">
+        <v>43919</v>
+      </c>
+      <c r="C33" s="2">
+        <v>111</v>
+      </c>
+      <c r="D33" s="2">
+        <v>14</v>
+      </c>
+      <c r="E33" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="4">
+        <v>43920</v>
+      </c>
+      <c r="C34" s="2">
+        <v>131</v>
+      </c>
+      <c r="D34" s="2">
+        <v>20</v>
+      </c>
+      <c r="E34" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="4">
+        <v>43921</v>
+      </c>
+      <c r="C35" s="6">
+        <v>151</v>
+      </c>
+      <c r="D35" s="2">
+        <v>20</v>
+      </c>
+      <c r="E35" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="4">
+        <v>43922</v>
+      </c>
+      <c r="C36" s="2">
+        <v>174</v>
+      </c>
+      <c r="D36" s="2">
+        <v>23</v>
+      </c>
+      <c r="E36" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="4">
+        <v>43923</v>
+      </c>
+      <c r="C37" s="2">
+        <v>184</v>
+      </c>
+      <c r="D37" s="2">
+        <v>10</v>
+      </c>
+      <c r="E37" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="4">
+        <v>43924</v>
+      </c>
+      <c r="C38" s="2">
+        <v>209</v>
+      </c>
+      <c r="D38" s="2">
+        <v>25</v>
+      </c>
+      <c r="E38" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="4">
         <v>43925</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C39" s="2">
+        <v>214</v>
+      </c>
+      <c r="D39" s="2">
+        <v>5</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="5">
+        <v>43926</v>
+      </c>
+      <c r="C40" s="3">
+        <v>224</v>
+      </c>
+      <c r="D40" s="3">
+        <v>10</v>
+      </c>
+      <c r="E40" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5">
-        <v>43926</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="15"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C16" location="_ftn1" display="_ftn1"/>
-    <hyperlink ref="A24" location="_ftnref1" display="_ftnref1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
